--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87FA598-72E7-4B5F-8312-7883231586B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7771642A-07C3-4DF1-B489-739D65499A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -193,13 +193,136 @@
   </si>
   <si>
     <t xml:space="preserve">               //r.MODELO,</t>
+  </si>
+  <si>
+    <t>Autonumerico</t>
+  </si>
+  <si>
+    <t>CodigoCierre</t>
+  </si>
+  <si>
+    <t>ControlesEquivalencia.DESCRIPCION</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>var controller = string.Format("/Controls/GetAutonumericos", Remote.RECUPIDJOBCARD, Remote.UserID);</t>
+  </si>
+  <si>
+    <t>DECO1</t>
+  </si>
+  <si>
+    <t>ESTADO3</t>
+  </si>
+  <si>
+    <t>ControlPrismas</t>
+  </si>
+  <si>
+    <t>var controller = string.Format("/ControlPrismas/GetAutonumericos", Prisma.ReclamoTecnicoID, Prisma.UserID);</t>
+  </si>
+  <si>
+    <t>ControlCables</t>
+  </si>
+  <si>
+    <t>CMODEM1</t>
+  </si>
+  <si>
+    <t>IDSuscripcion</t>
+  </si>
+  <si>
+    <t>MarcaModeloId</t>
+  </si>
+  <si>
+    <t>Observacion</t>
+  </si>
+  <si>
+    <t>var controller = string.Format("/ControlCables/GetAutonumericos", Cable.ReclamoTecnicoID, Cable.UserID);</t>
+  </si>
+  <si>
+    <t>ControlDtvs</t>
+  </si>
+  <si>
+    <t>EMOIW3,5-9</t>
+  </si>
+  <si>
+    <t>WVRTM-130A</t>
+  </si>
+  <si>
+    <t>XM-IC367-9</t>
+  </si>
+  <si>
+    <t>EMOOC365-9</t>
+  </si>
+  <si>
+    <t>EMOIW365-9</t>
+  </si>
+  <si>
+    <t>FMOIW992</t>
+  </si>
+  <si>
+    <t>LHR-22</t>
+  </si>
+  <si>
+    <t>LH-01</t>
+  </si>
+  <si>
+    <t>LH-27</t>
+  </si>
+  <si>
+    <t>LHR-26</t>
+  </si>
+  <si>
+    <t>LH-10</t>
+  </si>
+  <si>
+    <t>LHR-01</t>
+  </si>
+  <si>
+    <t>LKR-01</t>
+  </si>
+  <si>
+    <t>LKH01-100</t>
+  </si>
+  <si>
+    <t>LH26-100</t>
+  </si>
+  <si>
+    <t>var controller = string.Format("/ControlDtvs/GetAutonumericos", Dtv.ReclamoTecnicoID, Dtv.UserID);</t>
+  </si>
+  <si>
+    <t>ControlTasas</t>
+  </si>
+  <si>
+    <t>MODEM VDSL</t>
+  </si>
+  <si>
+    <t>IPTV</t>
+  </si>
+  <si>
+    <t>BASEPORT</t>
+  </si>
+  <si>
+    <t>HGU</t>
+  </si>
+  <si>
+    <t>4G VOLTEE</t>
+  </si>
+  <si>
+    <t>var controller = string.Format("/ControlTasas/GetAutonumericos", Tasa.ReclamoTecnicoID, Tasa.UserID);</t>
+  </si>
+  <si>
+    <t>var controller = string.Format("/AsignacionesTlc/GetAutonumericos", Tlc.ReclamoTecnicoID, Tlc.UserID);</t>
+  </si>
+  <si>
+    <t>DECO1 --&gt; Picker.ItemsSource  --&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +339,20 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -271,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,6 +417,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,13 +753,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -655,13 +797,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>718971</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -743,13 +885,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -831,13 +973,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -919,13 +1061,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -963,13 +1105,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1051,13 +1193,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1095,13 +1237,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1183,13 +1325,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1523,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE79EF-0119-4E1A-9E03-1A74197F6CC3}">
-  <dimension ref="A1:T220"/>
+  <dimension ref="A1:T247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S92" sqref="S92"/>
+      <pane ySplit="4" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104:E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1611,1179 +1753,1477 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="J177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N177" s="3"/>
-      <c r="O177" s="3"/>
-      <c r="P177" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q177" s="3"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K178" s="3"/>
-      <c r="L178" s="3"/>
-      <c r="M178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N178" s="3"/>
-      <c r="O178" s="3"/>
-      <c r="P178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q178" s="3"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-      <c r="J179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="3"/>
-      <c r="L179" s="3"/>
-      <c r="M179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N179" s="3"/>
-      <c r="O179" s="3"/>
-      <c r="P179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q179" s="3"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q180" s="3"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q181" s="3"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-      <c r="J182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K182" s="3"/>
-      <c r="L182" s="3"/>
-      <c r="M182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N182" s="3"/>
-      <c r="O182" s="3"/>
-      <c r="P182" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q182" s="3"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K183" s="3"/>
-      <c r="L183" s="3"/>
-      <c r="M183" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N183" s="3"/>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q183" s="3"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K184" s="3"/>
-      <c r="L184" s="3"/>
-      <c r="M184" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N184" s="3"/>
-      <c r="O184" s="3"/>
-      <c r="P184" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q184" s="3"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A185" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B186" s="6"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3"/>
-      <c r="M187" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N187" s="3"/>
-      <c r="O187" s="3"/>
-      <c r="P187" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q187" s="3"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3"/>
-      <c r="M188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N188" s="3"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q188" s="3"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3"/>
-      <c r="M189" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N189" s="3"/>
-      <c r="O189" s="3"/>
-      <c r="P189" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q189" s="3"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3"/>
-      <c r="M190" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N190" s="3"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q190" s="3"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3"/>
-      <c r="M191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N191" s="3"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q191" s="3"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q192" s="3"/>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3"/>
-      <c r="M193" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N193" s="3"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q193" s="3"/>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3"/>
-      <c r="M194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N194" s="3"/>
-      <c r="O194" s="3"/>
-      <c r="P194" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q194" s="3"/>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-      <c r="J195" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K195" s="3"/>
-      <c r="L195" s="3"/>
-      <c r="M195" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N195" s="3"/>
-      <c r="O195" s="3"/>
-      <c r="P195" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q195" s="3"/>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-      <c r="J197" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K197" s="3"/>
-      <c r="L197" s="3"/>
-      <c r="M197" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N197" s="3"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q197" s="3"/>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K198" s="3"/>
-      <c r="M198" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N198" s="5"/>
-      <c r="P198" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q198" s="3"/>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="J199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="M199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N199" s="3"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q199" s="3"/>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D200" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="6"/>
-      <c r="F200" s="6"/>
-      <c r="G200" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K200" s="6"/>
-      <c r="L200" s="6"/>
-      <c r="M200" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N200" s="6"/>
-      <c r="O200" s="6"/>
-      <c r="P200" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q200" s="6"/>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6"/>
-      <c r="G201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
-      <c r="J201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K201" s="6"/>
-      <c r="L201" s="6"/>
-      <c r="M201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N201" s="6"/>
-      <c r="O201" s="6"/>
-      <c r="P201" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q201" s="6"/>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D202" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M202" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N202" s="7"/>
-      <c r="P202" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K203" s="3"/>
-      <c r="L203" s="3"/>
-      <c r="M203" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N203" s="3"/>
-      <c r="O203" s="3"/>
-      <c r="P203" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q203" s="3"/>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A91" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A92" s="8"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G96" s="9"/>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L103" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="L104" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D105" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="L105" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D106" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="L106" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D107" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="L107" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D108" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="L108" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D109" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="L109" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D110" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="L110" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D111" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="L111" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D112" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="L112" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="Q204" s="3"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G205" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q205" s="3"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
       <c r="P206" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q206" s="3"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="Q207" s="3"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
       <c r="P208" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="Q208" s="3"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
       <c r="P209" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="Q209" s="3"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
       <c r="P210" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Q210" s="3"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
       <c r="P211" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="Q211" s="3"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="M212" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N212" s="3"/>
-      <c r="O212" s="3"/>
-      <c r="P212" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q212" s="3"/>
+      <c r="A212" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B212" s="6"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="J213" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
-      <c r="M213" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N213" s="3"/>
-      <c r="O213" s="3"/>
-      <c r="P213" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q213" s="3"/>
+      <c r="A213" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="6"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
       <c r="P214" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q214" s="3"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M215" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N215" s="4"/>
+      <c r="A215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q215" s="3"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
       <c r="M216" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q216" s="3"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="Q217" s="3"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
       <c r="P218" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="Q218" s="3"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
       <c r="P219" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q219" s="3"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
       <c r="P220" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q220" s="3"/>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q221" s="3"/>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q222" s="3"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q224" s="3"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K225" s="3"/>
+      <c r="M225" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N225" s="5"/>
+      <c r="P225" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q225" s="3"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E226" s="3"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q226" s="3"/>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q227" s="6"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D228" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q228" s="6"/>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D229" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M229" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N229" s="7"/>
+      <c r="P229" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q230" s="3"/>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q231" s="3"/>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G232" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q233" s="3"/>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q234" s="3"/>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q235" s="3"/>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q236" s="3"/>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q237" s="3"/>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q238" s="3"/>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q239" s="3"/>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q240" s="3"/>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q241" s="3"/>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M242" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N242" s="4"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B243" s="3"/>
+      <c r="G243" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H243" s="3"/>
+      <c r="M243" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N243" s="3"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q244" s="3"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q245" s="3"/>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D246" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q246" s="3"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D247" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q220" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q247" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J93:L95"/>
+    <mergeCell ref="M93:O95"/>
+    <mergeCell ref="P93:R95"/>
+    <mergeCell ref="A93:C95"/>
+    <mergeCell ref="D93:F95"/>
+    <mergeCell ref="G93:I95"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7771642A-07C3-4DF1-B489-739D65499A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1A9CE-838B-436B-A7AC-FCAFF085A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
@@ -1668,8 +1668,8 @@
   <dimension ref="A1:T247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104:E112"/>
+      <pane ySplit="4" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Flutter\fleetdeliveryapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA1A9CE-838B-436B-A7AC-FCAFF085A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F00ADC-CC66-4EEB-A31B-8E35347E571B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="144">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -316,13 +317,163 @@
   </si>
   <si>
     <t>DECO1 --&gt; Picker.ItemsSource  --&gt;</t>
+  </si>
+  <si>
+    <t>Cod. Cierre</t>
+  </si>
+  <si>
+    <t>Descripciòn</t>
+  </si>
+  <si>
+    <t>Cod. Equipo</t>
+  </si>
+  <si>
+    <t>Mac/Serie</t>
+  </si>
+  <si>
+    <t>Modem</t>
+  </si>
+  <si>
+    <t>Suscripciòn</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Obs/Activ</t>
+  </si>
+  <si>
+    <t>Otro Nº/Serie</t>
+  </si>
+  <si>
+    <t>Cod. Equipo - Conf. Cod. Equipo</t>
+  </si>
+  <si>
+    <t>Elije Todos</t>
+  </si>
+  <si>
+    <t>IDREGISTRO = p.IDREGISTRO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                RECUPIDJOBCARD = p.RECUPIDJOBCARD,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ReclamoTecnicoID = p.ReclamoTecnicoID,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                IDSuscripcion = p.IDSuscripcion,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ESTADOGAOS = p.ESTADOGAOS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                PROYECTOMODULO = p.PROYECTOMODULO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                FECHACUMPLIDA = p.FECHACUMPLIDA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                HsCumplidaTime = p.HsCumplidaTime,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                CodigoCierre = p.CodigoCierre,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Autonumerico = p.Autonumerico,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                DECO1 = p.DECO1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                CMODEM1 = p.CMODEM1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ESTADO = p.ESTADO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ESTADO2 = "SI",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ESTADO3 = p.ESTADO3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Activo= true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Habilita=false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ImageArrayDni = p.ImageArrayDni,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ImageArrayFirma = p.ImageArrayFirma,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                UrlDni = p.UrlDni,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                UrlFirma = p.UrlFirma,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Elegir = 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ZONA = p.ZONA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                HsCumplida = p.HsCumplida,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Observacion = p.Observacion,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MODELO = p.MODELO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MarcaModeloId = p.MarcaModeloId,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Motivos = p.Motivos</t>
+  </si>
+  <si>
+    <t>Deselije todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ESTADO2 = "NO",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Activo = false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Habilita = false,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Elegir = 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Activo = true,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Habilita = true,</t>
+  </si>
+  <si>
+    <t>PARCIAL</t>
+  </si>
+  <si>
+    <t>ID Gaos</t>
+  </si>
+  <si>
+    <t>Desc. Modelo</t>
+  </si>
+  <si>
+    <t>Deco 1:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +508,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +554,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -404,11 +569,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -419,6 +599,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -753,13 +943,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -797,13 +987,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>718971</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -842,13 +1032,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>88860</xdr:rowOff>
+      <xdr:rowOff>111720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -871,7 +1061,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2377440" y="6393180"/>
+          <a:off x="2377440" y="6416040"/>
           <a:ext cx="2296311" cy="5400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -885,13 +1075,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -973,13 +1163,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1061,13 +1251,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1105,13 +1295,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1193,13 +1383,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1237,13 +1427,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1325,13 +1515,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1665,11 +1855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE79EF-0119-4E1A-9E03-1A74197F6CC3}">
-  <dimension ref="A1:T247"/>
+  <dimension ref="A1:T265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
+      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119:I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1777,76 +1967,76 @@
       <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10" t="s">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10" t="s">
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10" t="s">
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10" t="s">
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="N93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10" t="s">
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
-      <c r="R94" s="10"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="10"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G96" s="9"/>
@@ -2043,1177 +2233,1367 @@
         <v>83</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="J204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K204" s="3"/>
-      <c r="L204" s="3"/>
-      <c r="M204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N204" s="3"/>
-      <c r="O204" s="3"/>
-      <c r="P204" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q204" s="3"/>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
-      <c r="M205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N205" s="3"/>
-      <c r="O205" s="3"/>
-      <c r="P205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q205" s="3"/>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="M206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N206" s="3"/>
-      <c r="O206" s="3"/>
-      <c r="P206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q206" s="3"/>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3"/>
-      <c r="P207" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q207" s="3"/>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3"/>
-      <c r="P208" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q208" s="3"/>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3"/>
-      <c r="P209" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q209" s="3"/>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-      <c r="P210" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q210" s="3"/>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
-      <c r="M211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q211" s="3"/>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B212" s="6"/>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="J214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K214" s="3"/>
-      <c r="L214" s="3"/>
-      <c r="M214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N214" s="3"/>
-      <c r="O214" s="3"/>
-      <c r="P214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q214" s="3"/>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q215" s="3"/>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K216" s="3"/>
-      <c r="L216" s="3"/>
-      <c r="M216" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N216" s="3"/>
-      <c r="O216" s="3"/>
-      <c r="P216" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q216" s="3"/>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K217" s="3"/>
-      <c r="L217" s="3"/>
-      <c r="M217" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N217" s="3"/>
-      <c r="O217" s="3"/>
-      <c r="P217" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q217" s="3"/>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K218" s="3"/>
-      <c r="L218" s="3"/>
-      <c r="M218" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N218" s="3"/>
-      <c r="O218" s="3"/>
-      <c r="P218" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q218" s="3"/>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q219" s="3"/>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K220" s="3"/>
-      <c r="L220" s="3"/>
-      <c r="M220" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N220" s="3"/>
-      <c r="O220" s="3"/>
-      <c r="P220" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q220" s="3"/>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K221" s="3"/>
-      <c r="L221" s="3"/>
-      <c r="M221" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N221" s="3"/>
-      <c r="O221" s="3"/>
-      <c r="P221" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q221" s="3"/>
+    <row r="114" spans="3:12" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="D114" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C115" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="K115" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C116" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="K116" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C117" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="K117" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C118" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" s="11"/>
+      <c r="E118" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F118" s="11"/>
+      <c r="G118" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I118" s="11"/>
+      <c r="K118" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="L118" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C119" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I119" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L119" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C120" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C121" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K121" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C122" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C123" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
       <c r="P222" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="Q222" s="3"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q223" s="3"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
       <c r="P224" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q224" s="3"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K225" s="3"/>
-      <c r="M225" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N225" s="5"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
       <c r="P225" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Q225" s="3"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
       <c r="P226" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="Q226" s="3"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D227" s="6" t="s">
+      <c r="A227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q227" s="3"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q228" s="3"/>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q229" s="3"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E227" s="6"/>
-      <c r="F227" s="6"/>
-      <c r="G227" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H227" s="6"/>
-      <c r="I227" s="6"/>
-      <c r="J227" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K227" s="6"/>
-      <c r="L227" s="6"/>
-      <c r="M227" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N227" s="6"/>
-      <c r="O227" s="6"/>
-      <c r="P227" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q227" s="6"/>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D228" s="6" t="s">
+      <c r="B230" s="6"/>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E228" s="6"/>
-      <c r="F228" s="6"/>
-      <c r="G228" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H228" s="6"/>
-      <c r="I228" s="6"/>
-      <c r="J228" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K228" s="6"/>
-      <c r="L228" s="6"/>
-      <c r="M228" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N228" s="6"/>
-      <c r="O228" s="6"/>
-      <c r="P228" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q228" s="6"/>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D229" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M229" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N229" s="7"/>
-      <c r="P229" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="J230" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K230" s="3"/>
-      <c r="L230" s="3"/>
-      <c r="M230" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N230" s="3"/>
-      <c r="O230" s="3"/>
-      <c r="P230" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q230" s="3"/>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K231" s="3"/>
-      <c r="L231" s="3"/>
-      <c r="M231" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N231" s="3"/>
-      <c r="O231" s="3"/>
-      <c r="P231" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q231" s="3"/>
+      <c r="B231" s="6"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G232" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q232" s="3"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
       <c r="P233" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="Q233" s="3"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N234" s="3"/>
       <c r="O234" s="3"/>
       <c r="P234" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Q234" s="3"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
       <c r="M235" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
       <c r="P235" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Q235" s="3"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
       <c r="P236" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Q236" s="3"/>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
       <c r="P237" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q237" s="3"/>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
       <c r="P238" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q238" s="3"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
       <c r="P239" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="Q239" s="3"/>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
       <c r="P240" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="Q240" s="3"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N241" s="3"/>
-      <c r="O241" s="3"/>
-      <c r="P241" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q241" s="3"/>
+      <c r="A241" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M242" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N242" s="4"/>
+      <c r="A242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q242" s="3"/>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
       <c r="G243" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H243" s="3"/>
-      <c r="M243" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K243" s="3"/>
+      <c r="M243" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N243" s="5"/>
+      <c r="P243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q243" s="3"/>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
       <c r="D244" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
       <c r="M244" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
       <c r="P244" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q244" s="3"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D245" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q245" s="6"/>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D246" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q246" s="6"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D247" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M247" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N247" s="7"/>
+      <c r="P247" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q248" s="3"/>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q249" s="3"/>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G250" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q251" s="3"/>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q252" s="3"/>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q253" s="3"/>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q254" s="3"/>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q255" s="3"/>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+      <c r="M256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q256" s="3"/>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q257" s="3"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q258" s="3"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q259" s="3"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M260" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N260" s="4"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B261" s="3"/>
+      <c r="G261" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H261" s="3"/>
+      <c r="M261" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N261" s="3"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D262" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q244" s="3"/>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D245" s="3" t="s">
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q262" s="3"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D263" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3" t="s">
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3" t="s">
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3"/>
-      <c r="M245" s="3" t="s">
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N245" s="3"/>
-      <c r="O245" s="3"/>
-      <c r="P245" s="3" t="s">
+      <c r="N263" s="3"/>
+      <c r="O263" s="3"/>
+      <c r="P263" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q245" s="3"/>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D246" s="3" t="s">
+      <c r="Q263" s="3"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D264" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3" t="s">
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3" t="s">
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3"/>
-      <c r="M246" s="3" t="s">
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N246" s="3"/>
-      <c r="O246" s="3"/>
-      <c r="P246" s="3" t="s">
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q246" s="3"/>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D247" s="3" t="s">
+      <c r="Q264" s="3"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D265" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3" t="s">
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3" t="s">
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3" t="s">
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N247" s="3"/>
-      <c r="O247" s="3"/>
-      <c r="P247" s="3" t="s">
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q247" s="3"/>
+      <c r="Q265" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3228,4 +3608,366 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3E080E-A81E-4557-BE2F-710D92CBF086}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="L24" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+      <c r="L27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="L29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F00ADC-CC66-4EEB-A31B-8E35347E571B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBF5A29-0110-4860-90E9-2A7D0BA8B18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
@@ -1858,8 +1858,8 @@
   <dimension ref="A1:T265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119:I119"/>
+      <pane ySplit="4" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBF5A29-0110-4860-90E9-2A7D0BA8B18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895C41C-C1B5-4C66-89B9-1DB64541095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="149">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -467,6 +467,21 @@
   </si>
   <si>
     <t>Deco 1:</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>IdGaos</t>
   </si>
 </sst>
 </file>
@@ -517,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +575,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -588,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -612,6 +639,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,13 +975,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -987,13 +1019,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>718971</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1075,13 +1107,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1163,13 +1195,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1251,13 +1283,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1295,13 +1327,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1383,13 +1415,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1427,13 +1459,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1515,13 +1547,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>711351</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>88860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1855,11 +1887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE79EF-0119-4E1A-9E03-1A74197F6CC3}">
-  <dimension ref="A1:T265"/>
+  <dimension ref="A1:T269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -2233,7 +2265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="3:12" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D114" s="13" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C115" s="10" t="s">
         <v>53</v>
       </c>
@@ -2269,7 +2301,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C116" s="10" t="s">
         <v>54</v>
       </c>
@@ -2285,1315 +2317,1367 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C117" s="10" t="s">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N117" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C118" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D118" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="K117" s="12" t="s">
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="K118" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C118" s="10" t="s">
+      <c r="N118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C119" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H118" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I118" s="11"/>
-      <c r="K118" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L118" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C119" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>102</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F119" s="11"/>
       <c r="G119" s="12" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I119" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K119" s="12" t="s">
-        <v>97</v>
+        <v>103</v>
+      </c>
+      <c r="I119" s="11"/>
+      <c r="K119" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="L119" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C120" s="10" t="s">
-        <v>63</v>
+      <c r="N119" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B120" s="19"/>
+      <c r="C120" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
+      <c r="E120" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="F120" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="I120" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="K120" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C121" s="10" t="s">
-        <v>64</v>
+        <v>102</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L120" s="1">
+        <v>5</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O120" s="1">
+        <v>4</v>
+      </c>
+      <c r="P120" s="19"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C121" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
       <c r="F121" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K121" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C122" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="12" t="s">
+      <c r="K121" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="K122" s="12" t="s">
+      <c r="N121" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="O121" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O122" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C123" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11"/>
       <c r="F123" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
       <c r="I123" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C124" s="10"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="12"/>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C125" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C127" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K123" s="12" t="s">
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N222" s="3"/>
-      <c r="O222" s="3"/>
-      <c r="P222" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q222" s="3"/>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N223" s="3"/>
-      <c r="O223" s="3"/>
-      <c r="P223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q223" s="3"/>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="J224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="3"/>
-      <c r="L224" s="3"/>
-      <c r="M224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N224" s="3"/>
-      <c r="O224" s="3"/>
-      <c r="P224" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q224" s="3"/>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q225" s="3"/>
+      <c r="K127" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
       <c r="P226" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q226" s="3"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
       <c r="P227" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Q227" s="3"/>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
       <c r="P228" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q228" s="3"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N229" s="3"/>
       <c r="O229" s="3"/>
       <c r="P229" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q229" s="3"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B230" s="6"/>
+      <c r="A230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q230" s="3"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B231" s="6"/>
+      <c r="A231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q231" s="3"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
       <c r="P232" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Q232" s="3"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
       <c r="P233" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q233" s="3"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N234" s="3"/>
-      <c r="O234" s="3"/>
-      <c r="P234" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q234" s="3"/>
+      <c r="A234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="6"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3"/>
-      <c r="M235" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N235" s="3"/>
-      <c r="O235" s="3"/>
-      <c r="P235" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q235" s="3"/>
+      <c r="A235" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" s="6"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
       <c r="M236" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
       <c r="P236" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q236" s="3"/>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
       <c r="M237" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
       <c r="P237" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q237" s="3"/>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
       <c r="M238" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
       <c r="P238" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q238" s="3"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
       <c r="M239" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
       <c r="P239" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q239" s="3"/>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
       <c r="M240" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
       <c r="P240" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q240" s="3"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q241" s="3"/>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
       <c r="M242" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q242" s="3"/>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K243" s="3"/>
-      <c r="M243" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N243" s="5"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
       <c r="P243" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q243" s="3"/>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
       <c r="M244" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
       <c r="P244" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q244" s="3"/>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D245" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6"/>
-      <c r="G245" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H245" s="6"/>
-      <c r="I245" s="6"/>
-      <c r="J245" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K245" s="6"/>
-      <c r="L245" s="6"/>
-      <c r="M245" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N245" s="6"/>
-      <c r="O245" s="6"/>
-      <c r="P245" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q245" s="6"/>
+      <c r="A245" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D246" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H246" s="6"/>
-      <c r="I246" s="6"/>
-      <c r="J246" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K246" s="6"/>
-      <c r="L246" s="6"/>
-      <c r="M246" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N246" s="6"/>
-      <c r="O246" s="6"/>
-      <c r="P246" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q246" s="6"/>
+      <c r="A246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q246" s="3"/>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D247" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J247" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M247" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N247" s="7"/>
-      <c r="P247" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K247" s="3"/>
+      <c r="M247" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N247" s="5"/>
+      <c r="P247" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q247" s="3"/>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
       <c r="M248" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
       <c r="P248" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q248" s="3"/>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3"/>
-      <c r="M249" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N249" s="3"/>
-      <c r="O249" s="3"/>
-      <c r="P249" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q249" s="3"/>
+      <c r="D249" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q249" s="6"/>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="G250" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D250" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q250" s="6"/>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B251" s="3"/>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N251" s="3"/>
-      <c r="O251" s="3"/>
-      <c r="P251" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q251" s="3"/>
+      <c r="D251" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M251" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N251" s="7"/>
+      <c r="P251" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
       <c r="M252" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q252" s="3"/>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
       <c r="J253" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
       <c r="M253" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q253" s="3"/>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q254" s="3"/>
+      <c r="G254" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
       <c r="J255" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
       <c r="M255" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q255" s="3"/>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
       <c r="J256" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
       <c r="M256" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q256" s="3"/>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
       <c r="M257" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q257" s="3"/>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
       <c r="J258" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
       <c r="M258" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q258" s="3"/>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
       <c r="M259" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q259" s="3"/>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M260" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N260" s="4"/>
+      <c r="A260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q260" s="3"/>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
       <c r="G261" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
       <c r="M261" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q261" s="3"/>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
       <c r="M262" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
       <c r="P262" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q262" s="3"/>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
       <c r="D263" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
       <c r="J263" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
       <c r="M263" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
       <c r="P263" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q263" s="3"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M264" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N264" s="4"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B265" s="3"/>
+      <c r="G265" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H265" s="3"/>
+      <c r="M265" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N265" s="3"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D266" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q266" s="3"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D267" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q263" s="3"/>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D264" s="3" t="s">
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+      <c r="P267" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q267" s="3"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D268" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3" t="s">
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
-      <c r="J264" s="3" t="s">
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3"/>
-      <c r="M264" s="3" t="s">
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N264" s="3"/>
-      <c r="O264" s="3"/>
-      <c r="P264" s="3" t="s">
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
+      <c r="P268" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q264" s="3"/>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D265" s="3" t="s">
+      <c r="Q268" s="3"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D269" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3" t="s">
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="J265" s="3" t="s">
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3"/>
-      <c r="M265" s="3" t="s">
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N265" s="3"/>
-      <c r="O265" s="3"/>
-      <c r="P265" s="3" t="s">
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Q265" s="3"/>
+      <c r="Q269" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895C41C-C1B5-4C66-89B9-1DB64541095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F6AB6-F692-4C17-9F4A-A5FF5FCBA4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pablo 22Abril" sheetId="3" r:id="rId3"/>
+    <sheet name="Lo que pide Fleet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="192">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -482,13 +484,164 @@
   </si>
   <si>
     <t>IdGaos</t>
+  </si>
+  <si>
+    <t>Conf Modelo</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>Obligatorio</t>
+  </si>
+  <si>
+    <t>Debe tener al menos 6 dígitos</t>
+  </si>
+  <si>
+    <t>Grabar en marcaModeloId el DECO1 de lo que se eligió en la lista desplegable</t>
+  </si>
+  <si>
+    <t>Ver el primer caso de Cablevision da error porque parece q no tiene Latitud</t>
+  </si>
+  <si>
+    <t>3er solapa Dario</t>
+  </si>
+  <si>
+    <t>novedades</t>
+  </si>
+  <si>
+    <t>NroSeriesExtras</t>
+  </si>
+  <si>
+    <t>Observacioncaptura</t>
+  </si>
+  <si>
+    <t>observacion</t>
+  </si>
+  <si>
+    <t>Deben llamarse</t>
+  </si>
+  <si>
+    <t>Novedades</t>
+  </si>
+  <si>
+    <t>N° Series Extras</t>
+  </si>
+  <si>
+    <t>Obs. Inicial</t>
+  </si>
+  <si>
+    <t>Obs. Cliente</t>
+  </si>
+  <si>
+    <t>Este no lo tengo</t>
+  </si>
+  <si>
+    <t>ü  Agrupación de clientes mediante la selección de Operación / Numero de Cliente / Nombre Cliente / Domicilio del cliente ü  Filtro de Prioridad solamente mostrar los clientes con fecha de cita para el día en curso. Todas las operaciones deberán para los casos de clientes prioritarios definirle una fecha de cita. Cambiaria el nombre de Prioridad en trabajos para HOY.</t>
+  </si>
+  <si>
+    <t>ü  Los recuperadores deberán informar en la app de sus ordenes pendientes una fecha de cita, la misma puede ser como esta definido actualmente mediante una gestión telefónica, visita directa, SMS u otro medio electrónico.</t>
+  </si>
+  <si>
+    <t>ü  El técnico desde la APP debe poder en su hoja de trabajo definirle el oreden de paso. De forma que pueda desde la app establecer como quiere hacer el recorrido.</t>
+  </si>
+  <si>
+    <t>ü  Colocar un contador de asignaciones.</t>
+  </si>
+  <si>
+    <t>ü  Para la planificación de sus hojas de Ruta deberá poder filtrar por zona según se informo en el archivo de captura de la base.</t>
+  </si>
+  <si>
+    <t>ü  Poder Buscar por Numero de Cliente. Si bien la opción esta pero no funciona en la nueva versión.</t>
+  </si>
+  <si>
+    <t>ü  Respecto a las definiciones funcionales de la APP te detallo los cambios a realizar.</t>
+  </si>
+  <si>
+    <t>Dejar la opción de no a todo</t>
+  </si>
+  <si>
+    <t>sí selecciono no a todo debe seleccionar una motivo</t>
+  </si>
+  <si>
+    <t>Incorporar la opción "Realizado"</t>
+  </si>
+  <si>
+    <t>Al ejecutar realizado  habilita la opción para seleccionar los equipos</t>
+  </si>
+  <si>
+    <t>Si el recupero es parcial porque marco alguna serie como NO  deberá seleccionar el motivo de rechazo. Hay dos motivos posibles  "cliente no tiene el equipo" "Coordinar nueva visita"</t>
+  </si>
+  <si>
+    <t>sí marco Realizado todos los campos si y no deben estar completos</t>
+  </si>
+  <si>
+    <t>Caso Movistar el campo serie debe estar en blanco y el técnico deberá scanear el equipo o tipear la serie</t>
+  </si>
+  <si>
+    <t>sí en movistar marco SI no puede estar en blanco la serie</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>HECHO</t>
+  </si>
+  <si>
+    <t>Agregar el campo ZONA y que se pueda filtrar por Zona</t>
+  </si>
+  <si>
+    <t>HACER</t>
+  </si>
+  <si>
+    <r>
+      <t>Sacar la opción si a Todo (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>poner REALIZADO al botón</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Rea</t>
+  </si>
+  <si>
+    <t>Sacar los botones SI NO y PARCIAL</t>
+  </si>
+  <si>
+    <t>Poner los CheckBox en NULL y que puedan elegir SI o NO (Obligatorio)</t>
+  </si>
+  <si>
+    <t>Si es NO debe poder elegirse una de las opciones "cliente no tiene el equipo" "Coordinar nueva visita"</t>
+  </si>
+  <si>
+    <t>Sacar del Group by elRECUPIDJOBCARD</t>
+  </si>
+  <si>
+    <t>Agrupamos por ReclamoTecnicoID??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +684,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +747,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -615,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -636,20 +802,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1590,6 +1764,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B93D34D5-7264-46E1-B60D-BABB0A19A773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3284220" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1889,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BE79EF-0119-4E1A-9E03-1A74197F6CC3}">
   <dimension ref="A1:T269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
@@ -1999,76 +2239,76 @@
       <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16" t="s">
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16" t="s">
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16" t="s">
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16" t="s">
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16" t="s">
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="22"/>
+      <c r="R94" s="22"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="22"/>
+      <c r="R95" s="22"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G96" s="9"/>
@@ -2326,7 +2566,7 @@
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D118" s="12" t="s">
@@ -2337,7 +2577,7 @@
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
-      <c r="K118" s="18" t="s">
+      <c r="K118" s="17" t="s">
         <v>142</v>
       </c>
       <c r="N118" s="1" t="s">
@@ -2348,7 +2588,7 @@
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C119" s="17" t="s">
+      <c r="C119" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D119" s="11"/>
@@ -2363,7 +2603,7 @@
         <v>103</v>
       </c>
       <c r="I119" s="11"/>
-      <c r="K119" s="18" t="s">
+      <c r="K119" s="17" t="s">
         <v>143</v>
       </c>
       <c r="L119" s="1">
@@ -2377,8 +2617,8 @@
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B120" s="19"/>
-      <c r="C120" s="17" t="s">
+      <c r="B120" s="18"/>
+      <c r="C120" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D120" s="11"/>
@@ -2397,7 +2637,7 @@
       <c r="I120" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="K120" s="18" t="s">
+      <c r="K120" s="17" t="s">
         <v>97</v>
       </c>
       <c r="L120" s="1">
@@ -2409,10 +2649,10 @@
       <c r="O120" s="1">
         <v>4</v>
       </c>
-      <c r="P120" s="19"/>
+      <c r="P120" s="18"/>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="16" t="s">
         <v>65</v>
       </c>
       <c r="D121" s="11"/>
@@ -2425,7 +2665,7 @@
       <c r="I121" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="K121" s="18" t="s">
+      <c r="K121" s="17" t="s">
         <v>100</v>
       </c>
       <c r="N121" s="1" t="s">
@@ -4054,4 +4294,290 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D88255-D2CC-4409-89E6-047B710929E7}">
+  <dimension ref="F2:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H9" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="16" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="H16" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A065A-E9FC-4057-A0DA-97BEAEB3828B}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="P8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F6AB6-F692-4C17-9F4A-A5FF5FCBA4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C176EC-EB13-4730-AE0C-27698C0FB806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="192">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -589,9 +589,6 @@
   </si>
   <si>
     <t>Agregar el campo ZONA y que se pueda filtrar por Zona</t>
-  </si>
-  <si>
-    <t>HACER</t>
   </si>
   <si>
     <r>
@@ -636,12 +633,15 @@
   <si>
     <t>Agrupamos por ReclamoTecnicoID??</t>
   </si>
+  <si>
+    <t xml:space="preserve">  Tuve que poner en la Tabla CodigosCierresAsignaciones la fila TLC Codigo 45</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,8 +691,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +760,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -781,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -813,6 +826,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4300,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D88255-D2CC-4409-89E6-047B710929E7}">
   <dimension ref="F2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4335,9 +4350,14 @@
       </c>
     </row>
     <row r="5" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
+      <c r="H5" s="20" t="s">
         <v>154</v>
       </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="9" spans="6:14" x14ac:dyDescent="0.3">
       <c r="H9" s="20" t="s">
@@ -4408,39 +4428,46 @@
     </row>
     <row r="16" spans="6:14" x14ac:dyDescent="0.3">
       <c r="H16" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" t="s">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H18" s="20" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4448,7 +4475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A065A-E9FC-4057-A0DA-97BEAEB3828B}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4485,16 +4514,16 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>184</v>
+      <c r="A5" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>184</v>
+      <c r="A6" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>171</v>
@@ -4505,7 +4534,7 @@
         <v>172</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -4518,7 +4547,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O10">
         <v>1</v>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C176EC-EB13-4730-AE0C-27698C0FB806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B228729-2425-459E-AF94-D53F8C532E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Pablo 22Abril" sheetId="3" r:id="rId3"/>
     <sheet name="Lo que pide Fleet" sheetId="4" r:id="rId4"/>
+    <sheet name="OPCIONES" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="275">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -636,12 +637,284 @@
   <si>
     <t xml:space="preserve">  Tuve que poner en la Tabla CodigosCierresAsignaciones la fila TLC Codigo 45</t>
   </si>
+  <si>
+    <t>Cant. Registros</t>
+  </si>
+  <si>
+    <t>Acción</t>
+  </si>
+  <si>
+    <t>SI (Recuperado/Entregado)</t>
+  </si>
+  <si>
+    <t>NO (No recuperado/No entregado)</t>
+  </si>
+  <si>
+    <t>Más de 1</t>
+  </si>
+  <si>
+    <t>Todos SI (Recuperados/Entregados)</t>
+  </si>
+  <si>
+    <t>Todos NO (No recuperados/No entregados)</t>
+  </si>
+  <si>
+    <t>Algunos SI y algunos NO</t>
+  </si>
+  <si>
+    <t>ESTADOGAOS</t>
+  </si>
+  <si>
+    <t>EJB</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>Al menos 6 dígitos</t>
+  </si>
+  <si>
+    <t>TelefAlternativo4</t>
+  </si>
+  <si>
+    <t>TelefAlternativo3</t>
+  </si>
+  <si>
+    <t>TelefAlternativo2</t>
+  </si>
+  <si>
+    <t>TelefAlternativo1</t>
+  </si>
+  <si>
+    <t>MedioCit</t>
+  </si>
+  <si>
+    <t>FechaCit</t>
+  </si>
+  <si>
+    <t>FechaEvento1</t>
+  </si>
+  <si>
+    <t>Evento1</t>
+  </si>
+  <si>
+    <t>FechaEvento2</t>
+  </si>
+  <si>
+    <t>Evento2</t>
+  </si>
+  <si>
+    <t>FechaEvento3</t>
+  </si>
+  <si>
+    <t>Evento3</t>
+  </si>
+  <si>
+    <t>FechaEvento4</t>
+  </si>
+  <si>
+    <t>Evento4</t>
+  </si>
+  <si>
+    <t>Motivos</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>ReclamoTecnicoID</t>
+  </si>
+  <si>
+    <t>ObservacionCaptura</t>
+  </si>
+  <si>
+    <t>HsCumplidaTime</t>
+  </si>
+  <si>
+    <t>CantRem</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>HsCumplida</t>
+  </si>
+  <si>
+    <t>PROYECTOMODULO</t>
+  </si>
+  <si>
+    <t>FechaAsignada</t>
+  </si>
+  <si>
+    <t>CAUSANTEC</t>
+  </si>
+  <si>
+    <t>SUBCON</t>
+  </si>
+  <si>
+    <t>FECHACUMPLIDA</t>
+  </si>
+  <si>
+    <t>ZONA</t>
+  </si>
+  <si>
+    <t>UrlFirma</t>
+  </si>
+  <si>
+    <t>UrlDni</t>
+  </si>
+  <si>
+    <t>ImageArrayFirma</t>
+  </si>
+  <si>
+    <t>ImageArrayDni</t>
+  </si>
+  <si>
+    <t>ESTADO2</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>GRYY</t>
+  </si>
+  <si>
+    <t>GRXX</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>LOCALIDAD</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>ENTRECALLE2</t>
+  </si>
+  <si>
+    <t>ENTRECALLE1</t>
+  </si>
+  <si>
+    <t>DOMICILIO</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>RECUPIDJOBCARD</t>
+  </si>
+  <si>
+    <t>IDREGISTRO</t>
+  </si>
+  <si>
+    <t>DateTime.now()</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Foto DNI</t>
+  </si>
+  <si>
+    <t>Firma</t>
+  </si>
+  <si>
+    <t>Formato ENTERO</t>
+  </si>
+  <si>
+    <t>Ver con Pablo</t>
+  </si>
+  <si>
+    <t>El que corresponda según el ProyectoModulo</t>
+  </si>
+  <si>
+    <t>A elección en la APP</t>
+  </si>
+  <si>
+    <t>De acá a la derecha son campos que deben mantener el valor que tenìan</t>
+  </si>
+  <si>
+    <t>Descripción del Cód. de Cierre</t>
+  </si>
+  <si>
+    <t>lat min</t>
+  </si>
+  <si>
+    <t>lat max</t>
+  </si>
+  <si>
+    <t>longin</t>
+  </si>
+  <si>
+    <t>longmax</t>
+  </si>
+  <si>
+    <t>latpro</t>
+  </si>
+  <si>
+    <t>longprom</t>
+  </si>
+  <si>
+    <t>AL tocar el mapa sin elegir asignaciones da error</t>
+  </si>
+  <si>
+    <r>
+      <t>Agregar Antigüedad (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>días</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) y sacarle el decimal</t>
+    </r>
+  </si>
+  <si>
+    <t>Leer en Tabla FuncionesApps si es obligatorio</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>HGU 004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queda lo que había salvo que elija de la lista desplegable. </t>
+  </si>
+  <si>
+    <t>que guardaría DECO1 de lo que se eligió en la lista desplegable</t>
+  </si>
+  <si>
+    <t>La Obs de la APP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,8 +971,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,6 +1047,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -794,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -823,11 +1122,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1845,6 +2162,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{735E9C4E-80B3-F068-2614-25D099C204FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="403860" y="3314700"/>
+          <a:ext cx="1424940" cy="1869386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2145,8 +2528,8 @@
   <dimension ref="A1:T269"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
+      <pane ySplit="4" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123:K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -2254,76 +2637,76 @@
       <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22" t="s">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22" t="s">
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22" t="s">
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22" t="s">
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22" t="s">
+      <c r="N93" s="32"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
+      <c r="Q93" s="32"/>
+      <c r="R93" s="32"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="32"/>
+      <c r="Q94" s="32"/>
+      <c r="R94" s="32"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="32"/>
+      <c r="R95" s="32"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G96" s="9"/>
@@ -4313,15 +4696,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D88255-D2CC-4409-89E6-047B710929E7}">
-  <dimension ref="F2:N25"/>
+  <dimension ref="F1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:M5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>149</v>
       </c>
@@ -4331,8 +4722,14 @@
       <c r="H2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>213123123</v>
+      </c>
+      <c r="P2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>97</v>
       </c>
@@ -4349,7 +4746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="6:16" x14ac:dyDescent="0.3">
       <c r="H5" s="20" t="s">
         <v>154</v>
       </c>
@@ -4359,7 +4756,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="9" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="6:16" x14ac:dyDescent="0.3">
       <c r="H9" s="20" t="s">
         <v>155</v>
       </c>
@@ -4372,7 +4769,7 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="6:16" x14ac:dyDescent="0.3">
       <c r="H10" s="20"/>
       <c r="I10" s="20" t="s">
         <v>156</v>
@@ -4385,7 +4782,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:16" x14ac:dyDescent="0.3">
       <c r="H11" s="20"/>
       <c r="I11" s="20" t="s">
         <v>157</v>
@@ -4398,7 +4795,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:16" x14ac:dyDescent="0.3">
       <c r="H12" s="20"/>
       <c r="I12" s="20" t="s">
         <v>158</v>
@@ -4413,7 +4810,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="6:16" x14ac:dyDescent="0.3">
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
         <v>159</v>
@@ -4426,7 +4823,7 @@
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="16" spans="6:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="6:16" x14ac:dyDescent="0.3">
       <c r="H16" s="20" t="s">
         <v>189</v>
       </c>
@@ -4440,7 +4837,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="22" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4460,8 +4857,53 @@
       </c>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H25" t="s">
+      <c r="H25" s="31" t="s">
         <v>190</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H27" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H29" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>262</v>
+      </c>
+      <c r="I39" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4475,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A065A-E9FC-4057-A0DA-97BEAEB3828B}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4514,7 +4956,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>182</v>
       </c>
       <c r="B5" t="s">
@@ -4522,7 +4964,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>182</v>
       </c>
       <c r="B6" t="s">
@@ -4609,4 +5051,1770 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34139A-7E06-4758-A327-67E7555E57FF}">
+  <dimension ref="A1:BH31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.21875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.88671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="58" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA5" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE5" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF5" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG5" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH5" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI5" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="AJ5" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK5" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN5" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO5" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP5" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ5" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR5" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS5" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU5" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV5" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW5" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX5" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="AY5" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ5" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA5" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB5" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="BC5" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD5" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="BE5" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF5" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="BG5" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH5" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+    </row>
+    <row r="8" spans="1:60" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
+      <c r="BH8" s="28"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+    </row>
+    <row r="12" spans="1:60" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="11"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C15" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="11"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="11"/>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C16" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C17" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+    </row>
+    <row r="19" spans="1:60" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="28"/>
+      <c r="BH19" s="28"/>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="11"/>
+      <c r="BH21" s="11"/>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C22" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="11"/>
+      <c r="BF22" s="11"/>
+      <c r="BG22" s="11"/>
+      <c r="BH22" s="11"/>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C23" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11"/>
+      <c r="BF23" s="11"/>
+      <c r="BG23" s="11"/>
+      <c r="BH23" s="11"/>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C24" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="11"/>
+      <c r="BF24" s="11"/>
+      <c r="BG24" s="11"/>
+      <c r="BH24" s="11"/>
+    </row>
+    <row r="26" spans="1:60" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="28"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="28"/>
+      <c r="AO26" s="28"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="11"/>
+      <c r="BH28" s="11"/>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C29" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="P29" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+      <c r="BA29" s="11"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
+      <c r="BE29" s="11"/>
+      <c r="BF29" s="11"/>
+      <c r="BG29" s="11"/>
+      <c r="BH29" s="11"/>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C30" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="11"/>
+      <c r="BF30" s="11"/>
+      <c r="BG30" s="11"/>
+      <c r="BH30" s="11"/>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="C31" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
+      <c r="BE31" s="11"/>
+      <c r="BF31" s="11"/>
+      <c r="BG31" s="11"/>
+      <c r="BH31" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B228729-2425-459E-AF94-D53F8C532E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A0CA35-74AF-42F4-830A-E216DEE2FF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Pablo 22Abril" sheetId="3" r:id="rId3"/>
-    <sheet name="Lo que pide Fleet" sheetId="4" r:id="rId4"/>
-    <sheet name="OPCIONES" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="6" r:id="rId4"/>
+    <sheet name="Lo que pide Fleet" sheetId="4" r:id="rId5"/>
+    <sheet name="OPCIONES" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="280">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -908,6 +909,21 @@
   </si>
   <si>
     <t>La Obs de la APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT IDREGISTRO, ESTADOGAOS, CodigoCierre, FECHACUMPLIDA, HsCumplidaTime, HsCumplida, ESTADO2, ESTADO3, MarcaModeloId, Observacion, UrlDni, UrlFirma, Evento1, FechaEvento1, Evento2, FechaEvento2, Evento3, FechaEvento3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Evento4, FechaEvento4</t>
+  </si>
+  <si>
+    <t>FROM     AsignacionesOTs</t>
+  </si>
+  <si>
+    <t>WHERE  (PROYECTOMODULO = 'Tasa') AND (UserID = 29)</t>
+  </si>
+  <si>
+    <t>ORDER BY IDREGISTRO</t>
   </si>
 </sst>
 </file>
@@ -4698,7 +4714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D88255-D2CC-4409-89E6-047B710929E7}">
   <dimension ref="F1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H29" sqref="H29:K29"/>
     </sheetView>
   </sheetViews>
@@ -4914,6 +4930,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5E807-B8CA-4C40-AD00-3B6977563408}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A065A-E9FC-4057-A0DA-97BEAEB3828B}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -5053,7 +5107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34139A-7E06-4758-A327-67E7555E57FF}">
   <dimension ref="A1:BH31"/>
   <sheetViews>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A0CA35-74AF-42F4-830A-E216DEE2FF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E34FE-60EC-406E-9004-1CD369D4FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Pablo 22Abril" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="6" r:id="rId4"/>
-    <sheet name="Lo que pide Fleet" sheetId="4" r:id="rId5"/>
-    <sheet name="OPCIONES" sheetId="5" r:id="rId6"/>
+    <sheet name="Lo que pide Fleet" sheetId="4" r:id="rId4"/>
+    <sheet name="OPCIONES" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4930,44 +4930,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5E807-B8CA-4C40-AD00-3B6977563408}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A065A-E9FC-4057-A0DA-97BEAEB3828B}">
   <dimension ref="A1:P18"/>
   <sheetViews>
@@ -5107,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34139A-7E06-4758-A327-67E7555E57FF}">
   <dimension ref="A1:BH31"/>
   <sheetViews>
@@ -6871,4 +6833,44 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5E807-B8CA-4C40-AD00-3B6977563408}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E34FE-60EC-406E-9004-1CD369D4FA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5670ED9-096D-4AD9-A6D1-A7792B8D8EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="284">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -924,6 +924,18 @@
   </si>
   <si>
     <t>ORDER BY IDREGISTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT IDREGISTRO, CLIENTE, ESTADOGAOS, CodigoCierre, FECHACUMPLIDA, HsCumplidaTime, HsCumplida, ESTADO2, ESTADO3, MarcaModeloId, Observacion, UrlDni, UrlFirma, Evento1, FechaEvento1, Evento2, FechaEvento2, Evento3, </t>
+  </si>
+  <si>
+    <t>WHERE  (PROYECTOMODULO = 'Otro') AND (UserID = 29)</t>
+  </si>
+  <si>
+    <t>ORDER BY CLIENTE, ESTADOGAOS, IDREGISTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  FechaEvento3, Evento4, FechaEvento4</t>
   </si>
 </sst>
 </file>
@@ -6837,10 +6849,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5E807-B8CA-4C40-AD00-3B6977563408}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6870,6 +6882,31 @@
         <v>279</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5670ED9-096D-4AD9-A6D1-A7792B8D8EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672D0D3-5850-4231-8EC0-FD2E1C5DB25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="291">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -936,6 +936,27 @@
   </si>
   <si>
     <t xml:space="preserve">                  FechaEvento3, Evento4, FechaEvento4</t>
+  </si>
+  <si>
+    <t>Poner foto y firma obligatorio en Control Remoto</t>
+  </si>
+  <si>
+    <t>En Control Remoto ver que si se cambia el Modelo que lo guarde</t>
+  </si>
+  <si>
+    <t>En Modelo ver que no salga la linea negra y amarilla</t>
+  </si>
+  <si>
+    <t>En otro recupero controlar que elija modelo y haya mac serie</t>
+  </si>
+  <si>
+    <t>Controlar NROSERIEEXTRA que no sea mayor a 30 caracyteres</t>
+  </si>
+  <si>
+    <t>Cambiar el Splash por el del Xamarin</t>
+  </si>
+  <si>
+    <t>Poner el botón Aceptar a la izquierda</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1173,6 +1194,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5083,10 +5105,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34139A-7E06-4758-A327-67E7555E57FF}">
-  <dimension ref="A1:BH31"/>
+  <dimension ref="A1:BH44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -6840,6 +6862,47 @@
       <c r="BG31" s="11"/>
       <c r="BH31" s="11"/>
     </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="33"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="33"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="33"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6851,8 +6914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5E807-B8CA-4C40-AD00-3B6977563408}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672D0D3-5850-4231-8EC0-FD2E1C5DB25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCA7AF-80B7-411C-BDB7-A437A12998DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
@@ -5108,7 +5108,7 @@
   <dimension ref="A1:BH44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -6899,9 +6899,10 @@
       <c r="E42" s="33"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="33" t="s">
         <v>289</v>
       </c>
+      <c r="E44" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DCA7AF-80B7-411C-BDB7-A437A12998DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A191D-9C0C-4F6C-9FE8-5E94E55FC518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="314">
   <si>
     <t>Controles Remotos</t>
   </si>
@@ -958,12 +958,104 @@
   <si>
     <t>Poner el botón Aceptar a la izquierda</t>
   </si>
+  <si>
+    <t xml:space="preserve">SELECT CLIENTE, NOMBRE, DOMICILIO, CP, ENTRECALLE1, ENTRECALLE2, Partido, LOCALIDAD, TELEFONO, GRXX, GRYY, ESTADOGAOS, PROYECTOMODULO, UserID, CAUSANTEC, SUBCON, FechaAsignada, CodigoCierre, Novedades, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  PROVINCIA, ReclamoTecnicoID, FechaCita, MedioCita, NroSeriesExtras, Evento1, FechaEvento1, Evento2, FechaEvento2, Evento3, FechaEvento3, Evento4, FechaEvento4, Observacion, TelefAlternativo1, TelefAlternativo2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  TelefAlternativo3, TelefAlternativo4, ObservacionCaptura, ZONA</t>
+  </si>
+  <si>
+    <t>WHERE  (PROYECTOMODULO = 'Tasa') AND (CLIENTE = '11009663')</t>
+  </si>
+  <si>
+    <t>Para ver los campos por los que agrupa</t>
+  </si>
+  <si>
+    <t>Para hacer 16/5</t>
+  </si>
+  <si>
+    <t>Eliminar ObservacionCaptura del Group y de la 3er pestaña</t>
+  </si>
+  <si>
+    <t>Cambiarlo por el campo Novedades</t>
+  </si>
+  <si>
+    <t>Sacar de las tarjetas celestes el campo modelo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nuevo campo en FuncionesApp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HabilitaCambioModelo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, con eso que se muestre o no la lista desplegable en las tarjetas celestes</t>
+    </r>
+  </si>
+  <si>
+    <t>Cambiar el color del botón parcial a gris oscuro</t>
+  </si>
+  <si>
+    <t>Revisar el rojo que boora el mac serie esta modificando el modelo</t>
+  </si>
+  <si>
+    <t>Rowing</t>
+  </si>
+  <si>
+    <t>En Inspecciones</t>
+  </si>
+  <si>
+    <t>Si el codigo causante es 000000</t>
+  </si>
+  <si>
+    <t>No mostrar la tarjeta que sigue</t>
+  </si>
+  <si>
+    <t>Mostrar dos campos a llenar: nombre y DNI , que van en NombreSR y DNISR (Obligatorios). DNI m=&gt; 6 digitos</t>
+  </si>
+  <si>
+    <t>AL entrar a inspecciones mostrar las inspecciones que hizo el usuario logueado en la fecha</t>
+  </si>
+  <si>
+    <t>Para esto consultar la vista VistaInspecciones</t>
+  </si>
+  <si>
+    <t>En esta pantalla un botón + me lleva a la pantalla de generar nueva inspección</t>
+  </si>
+  <si>
+    <t>Sobre las distintas inspecciones un botón de duplicar y que pregunte el legajo y me lleve a las preguntas ya contestadas para ver si se cambi alguna</t>
+  </si>
+  <si>
+    <t>Fleet</t>
+  </si>
+  <si>
+    <t>Agregar que guarde el IDTipoTarea</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,6 +1116,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1142,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1191,10 +1291,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2687,76 +2790,76 @@
       <c r="A92" s="8"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="32" t="s">
+      <c r="A93" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32" t="s">
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32" t="s">
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
-      <c r="J93" s="32" t="s">
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="K93" s="32"/>
-      <c r="L93" s="32"/>
-      <c r="M93" s="32" t="s">
+      <c r="K93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="N93" s="32"/>
-      <c r="O93" s="32"/>
-      <c r="P93" s="32" t="s">
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="Q93" s="32"/>
-      <c r="R93" s="32"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A94" s="32"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="32"/>
-      <c r="M94" s="32"/>
-      <c r="N94" s="32"/>
-      <c r="O94" s="32"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="32"/>
-      <c r="R94" s="32"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A95" s="32"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="32"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="32"/>
-      <c r="L95" s="32"/>
-      <c r="M95" s="32"/>
-      <c r="N95" s="32"/>
-      <c r="O95" s="32"/>
-      <c r="P95" s="32"/>
-      <c r="Q95" s="32"/>
-      <c r="R95" s="32"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G96" s="9"/>
@@ -5107,7 +5210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD34139A-7E06-4758-A327-67E7555E57FF}">
   <dimension ref="A1:BH44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
@@ -6863,46 +6966,46 @@
       <c r="BH31" s="11"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E37" s="33"/>
+      <c r="E37" s="32"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="33"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="E39" s="33"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="33"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E42" s="33"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="E44" s="33"/>
+      <c r="E44" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6913,10 +7016,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5E807-B8CA-4C40-AD00-3B6977563408}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6971,7 +7074,133 @@
         <v>282</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pantallas.xlsx
+++ b/Pantallas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A191D-9C0C-4F6C-9FE8-5E94E55FC518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FE517A-2DF4-410F-BD90-2DCA73B6F75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{019D86E0-0366-443C-B361-9E92F2872354}"/>
   </bookViews>
@@ -1293,11 +1293,11 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7016,10 +7016,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B5E807-B8CA-4C40-AD00-3B6977563408}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7089,112 +7089,137 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G21" s="14" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H23" s="20" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H24" s="20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="36" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H25" s="34" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H26" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H27" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H28" s="20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H32" s="34" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H32" s="36" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H33" t="s">
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H33" s="20" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I34" t="s">
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I34" s="20" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I35" t="s">
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I35" s="20" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H37" t="s">
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+    </row>
+    <row r="37" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H37" s="20" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="I38" t="s">
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+    </row>
+    <row r="38" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="I38" s="20" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H40" t="s">
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H40" s="20" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="42" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>311</v>
       </c>
